--- a/biology/Zoologie/Cheiracanthium_wilma/Cheiracanthium_wilma.xlsx
+++ b/biology/Zoologie/Cheiracanthium_wilma/Cheiracanthium_wilma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheiracanthium wilma est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheiracanthium wilma est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sainte-Hélène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,1 mm de long sur 1,2 mm et l'abdomen 3,1 mm et la carapace du mâle paratype mesure 1,5 mm de long sur 1,0 mm et l'abdomen 1,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,1 mm de long sur 1,2 mm et l'abdomen 3,1 mm et la carapace du mâle paratype mesure 1,5 mm de long sur 1,0 mm et l'abdomen 1,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Benoit, 1977 : Fam. Clubionidae. La faune terrestre de l'île de Saite-Hélène IV. Musée Royal de l'Afrique Centrale Tervuren Belgique Annales Serie in Octavo Sciences Zoologiques, vol. 220, p. 64-81.</t>
         </is>
